--- a/helper/jsonToXML.xlsx
+++ b/helper/jsonToXML.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Documents/GitHub/cisco-axl-rest/helper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEF16E0-A5BA-8143-97DD-DF645F8E74AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40110637-4451-CC4C-825C-37C6AF153A37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="1040" windowWidth="32640" windowHeight="34620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="routepattern" sheetId="1" r:id="rId1"/>
-    <sheet name="routepattern1" sheetId="2" r:id="rId2"/>
+    <sheet name="routepatternXML" sheetId="2" r:id="rId2"/>
     <sheet name="siproutepattern" sheetId="3" r:id="rId3"/>
-    <sheet name="siproutepattern1" sheetId="4" r:id="rId4"/>
+    <sheet name="siproutepatternXML" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">routepattern1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">routepatternXML!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="122">
   <si>
     <t>ROUTE PATTERN</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>domainRoutingCssName</t>
+  </si>
+  <si>
+    <t>headerLower</t>
   </si>
 </sst>
 </file>
@@ -1558,11 +1561,11 @@
         <v>93</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C42" si="0">CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A2)," ","")," ? '' : '&lt;",SUBSTITUTE(LOWER(B2)," ",""),"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A2)," ","")," + '&lt;/",SUBSTITUTE(LOWER(B2)," ",""),"&gt;') +")</f>
-        <v>(!jsonDATA.allowdeviceoverride ? '' : '&lt;allowdeviceoverride&gt;' + jsonDATA.allowdeviceoverride + '&lt;/allowdeviceoverride&gt;') +</v>
+        <f>CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A2)," ","")," ? '' : '&lt;",B2,"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A2)," ","")," + '&lt;/",B2,"&gt;') +")</f>
+        <v>(!jsonDATA.allowdeviceoverride ? '' : '&lt;allowDeviceOverride&gt;' + jsonDATA.allowdeviceoverride + '&lt;/allowDeviceOverride&gt;') +</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D42" si="1">SUBSTITUTE(LOWER(A2)," ","")</f>
+        <f t="shared" ref="D2:D38" si="0">SUBSTITUTE(LOWER(A2)," ","")</f>
         <v>allowdeviceoverride</v>
       </c>
     </row>
@@ -1574,11 +1577,11 @@
         <v>90</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.allowoverlapsending ? '' : '&lt;supportoverlapsending&gt;' + jsonDATA.allowoverlapsending + '&lt;/supportoverlapsending&gt;') +</v>
+        <f t="shared" ref="C3:C38" si="1">CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A3)," ","")," ? '' : '&lt;",B3,"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A3)," ","")," + '&lt;/",B3,"&gt;') +")</f>
+        <v>(!jsonDATA.allowoverlapsending ? '' : '&lt;supportOverlapSending&gt;' + jsonDATA.allowoverlapsending + '&lt;/supportOverlapSending&gt;') +</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>allowoverlapsending</v>
       </c>
     </row>
@@ -1590,11 +1593,11 @@
         <v>107</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.applycallblockingpercentage ? '' : '&lt;enabledccenforcement&gt;' + jsonDATA.applycallblockingpercentage + '&lt;/enabledccenforcement&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.applycallblockingpercentage ? '' : '&lt;enableDccEnforcement&gt;' + jsonDATA.applycallblockingpercentage + '&lt;/enableDccEnforcement&gt;') +</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>applycallblockingpercentage</v>
       </c>
     </row>
@@ -1606,11 +1609,11 @@
         <v>108</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.applycallblockingpercentagevalue ? '' : '&lt;blockedcallpercentage&gt;' + jsonDATA.applycallblockingpercentagevalue + '&lt;/blockedcallpercentage&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.applycallblockingpercentagevalue ? '' : '&lt;blockedCallPercentage&gt;' + jsonDATA.applycallblockingpercentagevalue + '&lt;/blockedCallPercentage&gt;') +</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>applycallblockingpercentagevalue</v>
       </c>
     </row>
@@ -1622,11 +1625,11 @@
         <v>101</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.authorizationlevel ? '' : '&lt;authorizationlevelrequired&gt;' + jsonDATA.authorizationlevel + '&lt;/authorizationlevelrequired&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.authorizationlevel ? '' : '&lt;authorizationLevelRequired&gt;' + jsonDATA.authorizationlevel + '&lt;/authorizationLevelRequired&gt;') +</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>authorizationlevel</v>
       </c>
     </row>
@@ -1638,11 +1641,11 @@
         <v>83</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.callclassification ? '' : '&lt;networklocation&gt;' + jsonDATA.callclassification + '&lt;/networklocation&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callclassification ? '' : '&lt;networkLocation&gt;' + jsonDATA.callclassification + '&lt;/networkLocation&gt;') +</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>callclassification</v>
       </c>
     </row>
@@ -1654,11 +1657,11 @@
         <v>98</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.calledpartynumbertype ? '' : '&lt;calledpartynumbertype&gt;' + jsonDATA.calledpartynumbertype + '&lt;/calledpartynumbertype&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.calledpartynumbertype ? '' : '&lt;calledPartyNumberType&gt;' + jsonDATA.calledpartynumbertype + '&lt;/calledPartyNumberType&gt;') +</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>calledpartynumbertype</v>
       </c>
     </row>
@@ -1670,11 +1673,11 @@
         <v>97</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.calledpartynumberingplan ? '' : '&lt;calledpartynumberingplan&gt;' + jsonDATA.calledpartynumberingplan + '&lt;/calledpartynumberingplan&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.calledpartynumberingplan ? '' : '&lt;calledPartyNumberingPlan&gt;' + jsonDATA.calledpartynumberingplan + '&lt;/calledPartyNumberingPlan&gt;') +</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>calledpartynumberingplan</v>
       </c>
     </row>
@@ -1686,11 +1689,11 @@
         <v>73</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.calledpartytransformmask ? '' : '&lt;calledpartytransformationmask&gt;' + jsonDATA.calledpartytransformmask + '&lt;/calledpartytransformationmask&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.calledpartytransformmask ? '' : '&lt;calledPartyTransformationMask&gt;' + jsonDATA.calledpartytransformmask + '&lt;/calledPartyTransformationMask&gt;') +</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>calledpartytransformmask</v>
       </c>
     </row>
@@ -1702,11 +1705,11 @@
         <v>86</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.callinglineidpresentation ? '' : '&lt;callinglinepresentationbit&gt;' + jsonDATA.callinglineidpresentation + '&lt;/callinglinepresentationbit&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callinglineidpresentation ? '' : '&lt;callingLinePresentationBit&gt;' + jsonDATA.callinglineidpresentation + '&lt;/callingLinePresentationBit&gt;') +</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>callinglineidpresentation</v>
       </c>
     </row>
@@ -1718,11 +1721,11 @@
         <v>87</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.callingnamepresentation ? '' : '&lt;callingnamepresentationbit&gt;' + jsonDATA.callingnamepresentation + '&lt;/callingnamepresentationbit&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callingnamepresentation ? '' : '&lt;callingNamePresentationBit&gt;' + jsonDATA.callingnamepresentation + '&lt;/callingNamePresentationBit&gt;') +</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>callingnamepresentation</v>
       </c>
     </row>
@@ -1734,11 +1737,11 @@
         <v>96</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.callingpartynumbertype ? '' : '&lt;callingpartynumbertype&gt;' + jsonDATA.callingpartynumbertype + '&lt;/callingpartynumbertype&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callingpartynumbertype ? '' : '&lt;callingPartyNumberType&gt;' + jsonDATA.callingpartynumbertype + '&lt;/callingPartyNumberType&gt;') +</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>callingpartynumbertype</v>
       </c>
     </row>
@@ -1750,11 +1753,11 @@
         <v>95</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.callingpartynumberingplan ? '' : '&lt;callingpartynumberingplan&gt;' + jsonDATA.callingpartynumberingplan + '&lt;/callingpartynumberingplan&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callingpartynumberingplan ? '' : '&lt;callingPartyNumberingPlan&gt;' + jsonDATA.callingpartynumberingplan + '&lt;/callingPartyNumberingPlan&gt;') +</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>callingpartynumberingplan</v>
       </c>
     </row>
@@ -1766,450 +1769,450 @@
         <v>74</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.callingpartytransformmask ? '' : '&lt;callingpartytransformationmask&gt;' + jsonDATA.callingpartytransformmask + '&lt;/callingpartytransformationmask&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callingpartytransformmask ? '' : '&lt;callingPartyTransformationMask&gt;' + jsonDATA.callingpartytransformmask + '&lt;/callingPartyTransformationMask&gt;') +</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>callingpartytransformmask</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.carrieridentificationcode ? '' : '&lt;cic&gt;' + jsonDATA.carrieridentificationcode + '&lt;/cic&gt;') +</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>carrieridentificationcode</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.connectedlineidpresentation ? '' : '&lt;connectedLinePresentationBit&gt;' + jsonDATA.connectedlineidpresentation + '&lt;/connectedLinePresentationBit&gt;') +</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>connectedlineidpresentation</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.connectedlineidpresentation ? '' : '&lt;connectedlinepresentationbit&gt;' + jsonDATA.connectedlineidpresentation + '&lt;/connectedlinepresentationbit&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.connectednamepresentation ? '' : '&lt;connectedNamePresentationBit&gt;' + jsonDATA.connectednamepresentation + '&lt;/connectedNamePresentationBit&gt;') +</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>connectedlineidpresentation</v>
+        <f t="shared" si="0"/>
+        <v>connectednamepresentation</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.connectednamepresentation ? '' : '&lt;connectednamepresentationbit&gt;' + jsonDATA.connectednamepresentation + '&lt;/connectednamepresentationbit&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.description ? '' : '&lt;description&gt;' + jsonDATA.description + '&lt;/description&gt;') +</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>connectednamepresentation</v>
+        <f t="shared" si="0"/>
+        <v>description</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.description ? '' : '&lt;description&gt;' + jsonDATA.description + '&lt;/description&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.discarddigits ? '' : '&lt;digitDiscardInstructionName&gt;' + jsonDATA.discarddigits + '&lt;/digitDiscardInstructionName&gt;') +</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>description</v>
+        <f t="shared" si="0"/>
+        <v>discarddigits</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.discarddigits ? '' : '&lt;digitdiscardinstructionname&gt;' + jsonDATA.discarddigits + '&lt;/digitdiscardinstructionname&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.externalcallcontrolprofile ? '' : '&lt;externalCallControl&gt;' + jsonDATA.externalcallcontrolprofile + '&lt;/externalCallControl&gt;') +</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>discarddigits</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>externalcallcontrolprofile</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.externalcallcontrolprofile ? '' : '&lt;externalcallcontrol&gt;' + jsonDATA.externalcallcontrolprofile + '&lt;/externalcallcontrol&gt;') +</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>externalcallcontrolprofile</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.gateway/routelist ? '' : '&lt;routeListName&gt;' + jsonDATA.gateway/routelist + '&lt;/routeListName&gt;') +</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>gateway/routelist</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.gateway/routelist ? '' : '&lt;routelistname&gt;' + jsonDATA.gateway/routelist + '&lt;/routelistname&gt;') +</v>
+        <v>114</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.isanemergencyservicesnumber ? '' : '&lt;isEmergencyServiceNumber&gt;' + jsonDATA.isanemergencyservicesnumber + '&lt;/isEmergencyServiceNumber&gt;') +</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>gateway/routelist</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.isanemergencyservicesnumber ? '' : '&lt;isemergencyservicenumber&gt;' + jsonDATA.isanemergencyservicesnumber + '&lt;/isemergencyservicenumber&gt;') +</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>isanemergencyservicesnumber</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.mlppprecedence ? '' : '&lt;patternPrecedence&gt;' + jsonDATA.mlppprecedence + '&lt;/patternPrecedence&gt;') +</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>mlppprecedence</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.mlppprecedence ? '' : '&lt;patternprecedence&gt;' + jsonDATA.mlppprecedence + '&lt;/patternprecedence&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.numberingplan ? '' : '&lt;dialPlanName&gt;' + jsonDATA.numberingplan + '&lt;/dialPlanName&gt;') +</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>mlppprecedence</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.networkservice ? '' : '&lt;networkservice&gt;' + jsonDATA.networkservice + '&lt;/networkservice&gt;') +</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>networkservice</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.networkserviceprotocol ? '' : '&lt;networkserviceprotocol&gt;' + jsonDATA.networkserviceprotocol + '&lt;/networkserviceprotocol&gt;') +</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>networkserviceprotocol</v>
+        <f t="shared" si="0"/>
+        <v>numberingplan</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.prefix_digits_called_party ? '' : '&lt;prefixDigitsOut&gt;' + jsonDATA.prefix_digits_called_party + '&lt;/prefixDigitsOut&gt;') +</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>prefix_digits_called_party</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.prefix_digits_calling_party ? '' : '&lt;callingPartyPrefixDigits&gt;' + jsonDATA.prefix_digits_calling_party + '&lt;/callingPartyPrefixDigits&gt;') +</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>prefix_digits_calling_party</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.numberingplan ? '' : '&lt;dialplanname&gt;' + jsonDATA.numberingplan + '&lt;/dialplanname&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.provideoutsidedialtone ? '' : '&lt;provideOutsideDialtone&gt;' + jsonDATA.provideoutsidedialtone + '&lt;/provideOutsideDialtone&gt;') +</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>numberingplan</v>
+        <f t="shared" si="0"/>
+        <v>provideoutsidedialtone</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.prefix_digits_called_party ? '' : '&lt;prefixdigitsout&gt;' + jsonDATA.prefix_digits_called_party + '&lt;/prefixdigitsout&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.requireclientmattercode ? '' : '&lt;clientCodeRequired&gt;' + jsonDATA.requireclientmattercode + '&lt;/clientCodeRequired&gt;') +</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>prefix_digits_called_party</v>
+        <f t="shared" si="0"/>
+        <v>requireclientmattercode</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.prefix_digits_calling_party ? '' : '&lt;callingpartyprefixdigits&gt;' + jsonDATA.prefix_digits_calling_party + '&lt;/callingpartyprefixdigits&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.requireforcedauthorizationcode ? '' : '&lt;authorizationCodeRequired&gt;' + jsonDATA.requireforcedauthorizationcode + '&lt;/authorizationCodeRequired&gt;') +</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>prefix_digits_calling_party</v>
+        <f t="shared" si="0"/>
+        <v>requireforcedauthorizationcode</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.provideoutsidedialtone ? '' : '&lt;provideoutsidedialtone&gt;' + jsonDATA.provideoutsidedialtone + '&lt;/provideoutsidedialtone&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.resourceprioritynamespacenetworkdomain ? '' : '&lt;resourcePriorityNamespaceName&gt;' + jsonDATA.resourceprioritynamespacenetworkdomain + '&lt;/resourcePriorityNamespaceName&gt;') +</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>provideoutsidedialtone</v>
+        <f t="shared" si="0"/>
+        <v>resourceprioritynamespacenetworkdomain</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.requireclientmattercode ? '' : '&lt;clientcoderequired&gt;' + jsonDATA.requireclientmattercode + '&lt;/clientcoderequired&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.routeclass ? '' : '&lt;routeClass&gt;' + jsonDATA.routeclass + '&lt;/routeClass&gt;') +</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>requireclientmattercode</v>
+        <f t="shared" si="0"/>
+        <v>routeclass</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.requireforcedauthorizationcode ? '' : '&lt;authorizationcoderequired&gt;' + jsonDATA.requireforcedauthorizationcode + '&lt;/authorizationcoderequired&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.routefilter ? '' : '&lt;routeFilterName&gt;' + jsonDATA.routefilter + '&lt;/routeFilterName&gt;') +</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>requireforcedauthorizationcode</v>
+        <f t="shared" si="0"/>
+        <v>routefilter</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.resourceprioritynamespacenetworkdomain ? '' : '&lt;resourceprioritynamespacename&gt;' + jsonDATA.resourceprioritynamespacenetworkdomain + '&lt;/resourceprioritynamespacename&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.routeoption ? '' : '&lt;blockEnable&gt;' + jsonDATA.routeoption + '&lt;/blockEnable&gt;') +</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>resourceprioritynamespacenetworkdomain</v>
+        <f t="shared" si="0"/>
+        <v>routeoption</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.routeclass ? '' : '&lt;routeclass&gt;' + jsonDATA.routeclass + '&lt;/routeclass&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.routepartition ? '' : '&lt;routePartitionName&gt;' + jsonDATA.routepartition + '&lt;/routePartitionName&gt;') +</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>routeclass</v>
+        <f t="shared" si="0"/>
+        <v>routepartition</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.routefilter ? '' : '&lt;routefiltername&gt;' + jsonDATA.routefilter + '&lt;/routefiltername&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.routepattern ? '' : '&lt;pattern&gt;' + jsonDATA.routepattern + '&lt;/pattern&gt;') +</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>routefilter</v>
+        <f t="shared" si="0"/>
+        <v>routepattern</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.routeoption ? '' : '&lt;blockenable&gt;' + jsonDATA.routeoption + '&lt;/blockenable&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.typeofreleasecausevalue ? '' : '&lt;releaseClause&gt;' + jsonDATA.typeofreleasecausevalue + '&lt;/releaseClause&gt;') +</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>routeoption</v>
+        <f t="shared" si="0"/>
+        <v>typeofreleasecausevalue</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.routepartition ? '' : '&lt;routepartitionname&gt;' + jsonDATA.routepartition + '&lt;/routepartitionname&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.urgentpriority ? '' : '&lt;patternUrgency&gt;' + jsonDATA.urgentpriority + '&lt;/patternUrgency&gt;') +</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>routepartition</v>
+        <f t="shared" si="0"/>
+        <v>urgentpriority</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.routepattern ? '' : '&lt;pattern&gt;' + jsonDATA.routepattern + '&lt;/pattern&gt;') +</v>
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.usecallingpartysexternalphonenumbermask ? '' : '&lt;useCallingPartyPhoneMask&gt;' + jsonDATA.usecallingpartysexternalphonenumbermask + '&lt;/useCallingPartyPhoneMask&gt;') +</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>routepattern</v>
+        <f t="shared" si="0"/>
+        <v>usecallingpartysexternalphonenumbermask</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="str">
+        <f>CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A39)," ","")," ? '' : '&lt;",B39,"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A39)," ","")," + '&lt;/",B39,"&gt;') +")</f>
+        <v>(!jsonDATA.carrieridentificationcode ? '' : '&lt;cic&gt;' + jsonDATA.carrieridentificationcode + '&lt;/cic&gt;') +</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(A39)," ","")</f>
+        <v>carrieridentificationcode</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="str">
+        <f>CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A40)," ","")," ? '' : '&lt;",B40,"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A40)," ","")," + '&lt;/",B40,"&gt;') +")</f>
+        <v>(!jsonDATA.networkservice ? '' : '&lt;networkService&gt;' + jsonDATA.networkservice + '&lt;/networkService&gt;') +</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(A40)," ","")</f>
+        <v>networkservice</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="str">
+        <f>CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A41)," ","")," ? '' : '&lt;",B41,"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A41)," ","")," + '&lt;/",B41,"&gt;') +")</f>
+        <v>(!jsonDATA.networkserviceprotocol ? '' : '&lt;networkServiceProtocol&gt;' + jsonDATA.networkserviceprotocol + '&lt;/networkServiceProtocol&gt;') +</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(A41)," ","")</f>
+        <v>networkserviceprotocol</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.serviceparametervalue ? '' : '&lt;paramvalue&gt;' + jsonDATA.serviceparametervalue + '&lt;/paramvalue&gt;') +</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="C42" t="str">
+        <f>CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A42)," ","")," ? '' : '&lt;",B42,"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A42)," ","")," + '&lt;/",B42,"&gt;') +")</f>
+        <v>(!jsonDATA.serviceparametervalue ? '' : '&lt;paramValue&gt;' + jsonDATA.serviceparametervalue + '&lt;/paramValue&gt;') +</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(A42)," ","")</f>
         <v>serviceparametervalue</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.typeofreleasecausevalue ? '' : '&lt;releaseclause&gt;' + jsonDATA.typeofreleasecausevalue + '&lt;/releaseclause&gt;') +</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>typeofreleasecausevalue</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.urgentpriority ? '' : '&lt;patternurgency&gt;' + jsonDATA.urgentpriority + '&lt;/patternurgency&gt;') +</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>urgentpriority</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>(!jsonDATA.usecallingpartysexternalphonenumbermask ? '' : '&lt;usecallingpartyphonemask&gt;' + jsonDATA.usecallingpartysexternalphonenumbermask + '&lt;/usecallingpartyphonemask&gt;') +</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>usecallingpartysexternalphonenumbermask</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
-      <sortCondition ref="A1:A42"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
+      <sortCondition ref="A1:A38"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2358,14 +2361,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="145.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2373,13 +2376,14 @@
       <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="str">
-        <f>CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A1)," ","")," ? '' : '&lt;",SUBSTITUTE(LOWER(B1)," ",""),"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A1)," ","")," + '&lt;/",SUBSTITUTE(LOWER(B1)," ",""),"&gt;') +")</f>
-        <v>(!jsonDATA.header ? '' : '&lt;&gt;' + jsonDATA.header + '&lt;/&gt;') +</v>
-      </c>
-      <c r="D1" t="str">
-        <f>SUBSTITUTE(LOWER(A1)," ","")</f>
-        <v>header</v>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2390,11 +2394,11 @@
         <v>105</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A2)," ","")," ? '' : '&lt;",SUBSTITUTE(LOWER(B2)," ",""),"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A2)," ","")," + '&lt;/",SUBSTITUTE(LOWER(B2)," ",""),"&gt;') +")</f>
+        <f>CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A2)," ","")," ? '' : '&lt;",B2,"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A2)," ","")," + '&lt;/",B2,"&gt;') +")</f>
         <v>(!jsonDATA.ipv4pattern ? '' : '&lt;pattern&gt;' + jsonDATA.ipv4pattern + '&lt;/pattern&gt;') +</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2" si="1">SUBSTITUTE(LOWER(A2)," ","")</f>
+        <f t="shared" ref="D2" si="0">SUBSTITUTE(LOWER(A2)," ","")</f>
         <v>ipv4pattern</v>
       </c>
     </row>
@@ -2406,11 +2410,11 @@
         <v>71</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C18" si="2">CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A3)," ","")," ? '' : '&lt;",SUBSTITUTE(LOWER(B3)," ",""),"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A3)," ","")," + '&lt;/",SUBSTITUTE(LOWER(B3)," ",""),"&gt;') +")</f>
+        <f t="shared" ref="C3:C18" si="1">CONCATENATE("(!jsonDATA.",SUBSTITUTE(LOWER(A3)," ","")," ? '' : '&lt;",B3,"&gt;' + jsonDATA.",SUBSTITUTE(LOWER(A3)," ","")," + '&lt;/",B3,"&gt;') +")</f>
         <v>(!jsonDATA.description ? '' : '&lt;description&gt;' + jsonDATA.description + '&lt;/description&gt;') +</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D18" si="3">SUBSTITUTE(LOWER(A3)," ","")</f>
+        <f t="shared" ref="D3:D18" si="2">SUBSTITUTE(LOWER(A3)," ","")</f>
         <v>description</v>
       </c>
     </row>
@@ -2422,11 +2426,11 @@
         <v>72</v>
       </c>
       <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.routepartition ? '' : '&lt;routePartitionName&gt;' + jsonDATA.routepartition + '&lt;/routePartitionName&gt;') +</v>
+      </c>
+      <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.routepartition ? '' : '&lt;routepartitionname&gt;' + jsonDATA.routepartition + '&lt;/routepartitionname&gt;') +</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="3"/>
         <v>routepartition</v>
       </c>
     </row>
@@ -2438,11 +2442,11 @@
         <v>80</v>
       </c>
       <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.blockpattern ? '' : '&lt;blockEnable&gt;' + jsonDATA.blockpattern + '&lt;/blockEnable&gt;') +</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.blockpattern ? '' : '&lt;blockenable&gt;' + jsonDATA.blockpattern + '&lt;/blockenable&gt;') +</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="3"/>
         <v>blockpattern</v>
       </c>
     </row>
@@ -2454,11 +2458,11 @@
         <v>75</v>
       </c>
       <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.usecallingpartysexternalphonemask ? '' : '&lt;useCallingPartyPhoneMask&gt;' + jsonDATA.usecallingpartysexternalphonemask + '&lt;/useCallingPartyPhoneMask&gt;') +</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.usecallingpartysexternalphonemask ? '' : '&lt;usecallingpartyphonemask&gt;' + jsonDATA.usecallingpartysexternalphonemask + '&lt;/usecallingpartyphonemask&gt;') +</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="3"/>
         <v>usecallingpartysexternalphonemask</v>
       </c>
     </row>
@@ -2470,11 +2474,11 @@
         <v>74</v>
       </c>
       <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callingpartytransformationmask ? '' : '&lt;callingPartyTransformationMask&gt;' + jsonDATA.callingpartytransformationmask + '&lt;/callingPartyTransformationMask&gt;') +</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.callingpartytransformationmask ? '' : '&lt;callingpartytransformationmask&gt;' + jsonDATA.callingpartytransformationmask + '&lt;/callingpartytransformationmask&gt;') +</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="3"/>
         <v>callingpartytransformationmask</v>
       </c>
     </row>
@@ -2486,11 +2490,11 @@
         <v>76</v>
       </c>
       <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.prefixdigits ? '' : '&lt;callingPartyPrefixDigits&gt;' + jsonDATA.prefixdigits + '&lt;/callingPartyPrefixDigits&gt;') +</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.prefixdigits ? '' : '&lt;callingpartyprefixdigits&gt;' + jsonDATA.prefixdigits + '&lt;/callingpartyprefixdigits&gt;') +</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="3"/>
         <v>prefixdigits</v>
       </c>
     </row>
@@ -2502,11 +2506,11 @@
         <v>86</v>
       </c>
       <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callinglineidpresentation ? '' : '&lt;callingLinePresentationBit&gt;' + jsonDATA.callinglineidpresentation + '&lt;/callingLinePresentationBit&gt;') +</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.callinglineidpresentation ? '' : '&lt;callinglinepresentationbit&gt;' + jsonDATA.callinglineidpresentation + '&lt;/callinglinepresentationbit&gt;') +</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="3"/>
         <v>callinglineidpresentation</v>
       </c>
     </row>
@@ -2518,11 +2522,11 @@
         <v>87</v>
       </c>
       <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.callinglinenamepresentation ? '' : '&lt;callingNamePresentationBit&gt;' + jsonDATA.callinglinenamepresentation + '&lt;/callingNamePresentationBit&gt;') +</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.callinglinenamepresentation ? '' : '&lt;callingnamepresentationbit&gt;' + jsonDATA.callinglinenamepresentation + '&lt;/callingnamepresentationbit&gt;') +</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="3"/>
         <v>callinglinenamepresentation</v>
       </c>
     </row>
@@ -2534,11 +2538,11 @@
         <v>88</v>
       </c>
       <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.connectedlineidpresentation ? '' : '&lt;connectedLinePresentationBit&gt;' + jsonDATA.connectedlineidpresentation + '&lt;/connectedLinePresentationBit&gt;') +</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.connectedlineidpresentation ? '' : '&lt;connectedlinepresentationbit&gt;' + jsonDATA.connectedlineidpresentation + '&lt;/connectedlinepresentationbit&gt;') +</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="3"/>
         <v>connectedlineidpresentation</v>
       </c>
     </row>
@@ -2550,11 +2554,11 @@
         <v>89</v>
       </c>
       <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.connectedlinenamepresentation ? '' : '&lt;connectedNamePresentationBit&gt;' + jsonDATA.connectedlinenamepresentation + '&lt;/connectedNamePresentationBit&gt;') +</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.connectedlinenamepresentation ? '' : '&lt;connectednamepresentationbit&gt;' + jsonDATA.connectedlinenamepresentation + '&lt;/connectednamepresentationbit&gt;') +</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="3"/>
         <v>connectedlinenamepresentation</v>
       </c>
     </row>
@@ -2566,11 +2570,11 @@
         <v>116</v>
       </c>
       <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.ipv6pattern ? '' : '&lt;dnOrPatternIpv6&gt;' + jsonDATA.ipv6pattern + '&lt;/dnOrPatternIpv6&gt;') +</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.ipv6pattern ? '' : '&lt;dnorpatternipv6&gt;' + jsonDATA.ipv6pattern + '&lt;/dnorpatternipv6&gt;') +</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="3"/>
         <v>ipv6pattern</v>
       </c>
     </row>
@@ -2582,11 +2586,11 @@
         <v>117</v>
       </c>
       <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.patternusage ? '' : '&lt;usage&gt;' + jsonDATA.patternusage + '&lt;/usage&gt;') +</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.patternusage ? '' : '&lt;usage&gt;' + jsonDATA.patternusage + '&lt;/usage&gt;') +</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="3"/>
         <v>patternusage</v>
       </c>
     </row>
@@ -2598,11 +2602,11 @@
         <v>118</v>
       </c>
       <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.routeonuserpart ? '' : '&lt;routeOnUserPart&gt;' + jsonDATA.routeonuserpart + '&lt;/routeOnUserPart&gt;') +</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.routeonuserpart ? '' : '&lt;routeonuserpart&gt;' + jsonDATA.routeonuserpart + '&lt;/routeonuserpart&gt;') +</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="3"/>
         <v>routeonuserpart</v>
       </c>
     </row>
@@ -2614,11 +2618,11 @@
         <v>119</v>
       </c>
       <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.usecallercss ? '' : '&lt;useCallerCss&gt;' + jsonDATA.usecallercss + '&lt;/useCallerCss&gt;') +</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.usecallercss ? '' : '&lt;usecallercss&gt;' + jsonDATA.usecallercss + '&lt;/usecallercss&gt;') +</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="3"/>
         <v>usecallercss</v>
       </c>
     </row>
@@ -2630,11 +2634,11 @@
         <v>120</v>
       </c>
       <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.domainroutingcallingsearchspace ? '' : '&lt;domainRoutingCssName&gt;' + jsonDATA.domainroutingcallingsearchspace + '&lt;/domainRoutingCssName&gt;') +</v>
+      </c>
+      <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.domainroutingcallingsearchspace ? '' : '&lt;domainroutingcssname&gt;' + jsonDATA.domainroutingcallingsearchspace + '&lt;/domainroutingcssname&gt;') +</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="3"/>
         <v>domainroutingcallingsearchspace</v>
       </c>
     </row>
@@ -2646,11 +2650,11 @@
         <v>115</v>
       </c>
       <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>(!jsonDATA.siptrunk ? '' : '&lt;sipTrunkName&gt;' + jsonDATA.siptrunk + '&lt;/sipTrunkName&gt;') +</v>
+      </c>
+      <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>(!jsonDATA.siptrunk ? '' : '&lt;siptrunkname&gt;' + jsonDATA.siptrunk + '&lt;/siptrunkname&gt;') +</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="3"/>
         <v>siptrunk</v>
       </c>
     </row>
